--- a/maps/Patient.xlsx
+++ b/maps/Patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\mgraauw\eu-nl-compared\maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Nictiz\eu-nl-compared\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADD4747-7FC1-4C3B-8394-0F48E3223956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F1C10-F8AF-4B71-89DA-99697F987F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13500" yWindow="-21600" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>EHDSPatient</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>Patient.MultipleBirthSequence</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>beiden</t>
+  </si>
+  <si>
+    <t>geen</t>
+  </si>
+  <si>
+    <t>submodel</t>
+  </si>
+  <si>
+    <t>gelijk</t>
   </si>
 </sst>
 </file>
@@ -454,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,110 +481,161 @@
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
